--- a/ExcelFolder/SL组合key示例.xlsx
+++ b/ExcelFolder/SL组合key示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel2JsonTool\ExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE781608-93B0-4224-9D59-DB77372AC349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA769020-212B-4D7B-AEBB-C1C62B114325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10650" yWindow="5130" windowWidth="23140" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleCombinedKey" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -148,13 +145,16 @@
     <t>字典-整型:字符串</t>
   </si>
   <si>
-    <t>key1:id</t>
-  </si>
-  <si>
     <t>key2:group</t>
   </si>
   <si>
     <t>组合key仅支持int类型，且不能超过46340</t>
+  </si>
+  <si>
+    <t>key1:level</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -591,144 +591,144 @@
   <sheetData>
     <row r="1" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -754,19 +754,19 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
